--- a/backend/Templates/TemplateLaporan.xlsx
+++ b/backend/Templates/TemplateLaporan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swg\source\repos\Swg.Bnpp\Swg.Bnpp.Api\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hilmankaryadi/Documents/repos/Swg.Bnpp/Swg.Bnpp.Api/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1131BBC0-4BAE-4F46-A5D3-4BD273836DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E89DB4-EF08-4F4E-823D-38E6356908AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24040" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rekap" sheetId="3" r:id="rId1"/>
     <sheet name="daftar" sheetId="2" r:id="rId2"/>
     <sheet name="detil" sheetId="5" r:id="rId3"/>
-    <sheet name="datadiri" sheetId="6" r:id="rId4"/>
+    <sheet name="petugas" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Jam Input</t>
+  </si>
+  <si>
+    <t>Jabatan Petugas Input</t>
+  </si>
+  <si>
+    <t>Email Petugas Input</t>
+  </si>
+  <si>
+    <t>No HP Petugas Input</t>
   </si>
 </sst>
 </file>
@@ -587,14 +596,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -602,7 +611,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -610,11 +619,11 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -624,7 +633,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -655,21 +664,21 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="15" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="7" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -688,7 +697,7 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -707,8 +716,8 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,20 +776,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72F9E6A-9244-4163-B7E2-33603EC447E0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -788,8 +797,11 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -806,19 +821,22 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -837,124 +855,148 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F16478-4848-41E4-931E-3A8F830EEF8D}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D654E50-E91B-E849-A90C-827E0329C568}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -963,6 +1005,5 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>